--- a/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Customers.xlsx
+++ b/src/InsiteCommerce.Web/ImportExport/SampleImports/SampleImport_Customers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InsiteCommerce\trunk\ISC-6630\InSiteCommerce.Web\ImportExport\SampleImports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\insite-commerce\Legacy\InSiteCommerce.Web\ImportExport\SampleImports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02089E6D-13D9-41A8-8A0A-E0221CBC08EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18150" windowHeight="7095"/>
+    <workbookView xWindow="-29850" yWindow="1710" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -72,9 +73,6 @@
   </si>
   <si>
     <t>Often used for pricing</t>
-  </si>
-  <si>
-    <t>The salesperson number - the sales reps must exist for this to work</t>
   </si>
   <si>
     <t>Primary contact's first name</t>
@@ -336,11 +334,14 @@
   <si>
     <t>0=false, 1=true - this should be set to 1 for live customers</t>
   </si>
+  <si>
+    <t>The sales rep must exist in B2B Commerce for this mapping to work.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -705,13 +706,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T1" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,46 +751,46 @@
   <sheetData>
     <row r="1" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>7</v>
@@ -798,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>9</v>
@@ -810,37 +811,37 @@
         <v>3</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="AE1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
@@ -952,10 +953,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>14</v>
@@ -964,247 +965,247 @@
         <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="Y3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Z3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="AE3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="R5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="U6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="3" t="s">
+      <c r="Y6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1"/>
-    <hyperlink ref="AE5" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AE5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
